--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/kernels.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/kernels.xlsx
@@ -1,34 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,15 +45,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -419,13 +414,31 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -437,75 +450,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[27]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>[3, 5, 6, 23]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>[2, 19, 20, 22, 39]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>[18]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>[8, 19, 20, 22, 23, 26, 28, 32]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>[20, 22]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>[2, 3, 4, 7, 10, 12, 22, 25, 27, 36, 39]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>[2, 8, 17, 18, 43]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>[10, 11, 23, 26, 28, 29, 30, 31, 36, 37, 41]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
           <t>[]</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/kernels.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/kernels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[11, 23]</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/kernels.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/kernels.xlsx
@@ -450,7 +450,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[11, 23]</t>
+          <t>[14, 15, 25]</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/kernels.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/kernels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[14, 15, 25]</t>
+          <t>[0, 27]</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/kernels.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/kernels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[11, 23]</t>
+          <t>[3, 6, 17]</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/kernels.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/kernels.xlsx
@@ -450,7 +450,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[3, 6, 17]</t>
+          <t>[3, 6, 12, 16, 17, 27]</t>
         </is>
       </c>
     </row>
